--- a/CV_Carnets_de_Vie/AA_Systeme_S0/CdCF.xlsx
+++ b/CV_Carnets_de_Vie/AA_Systeme_S0/CdCF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447270D-966D-4292-98A7-E93402057260}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDC6350-A4A4-49D8-BFD8-AA32FD37B01B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Fonction principale</t>
   </si>
@@ -210,16 +210,16 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +504,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,38 +512,38 @@
     <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -552,39 +552,39 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -595,9 +595,9 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -608,9 +608,9 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -621,9 +621,9 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -634,13 +634,13 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -651,9 +651,9 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
@@ -662,9 +662,9 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -675,9 +675,9 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -688,9 +688,9 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -701,13 +701,13 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -718,9 +718,9 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -731,9 +731,9 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
